--- a/eccrm-spec/spec-web/src/main/resources/youth.xlsx
+++ b/eccrm-spec/spec-web/src/main/resources/youth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>社会闲散青少年季度统计表</t>
   </si>
@@ -42,9 +42,15 @@
     <t>电话</t>
   </si>
   <si>
+    <t>身份证号</t>
+  </si>
+  <si>
     <t>QQ</t>
   </si>
   <si>
+    <t>兴趣爱好</t>
+  </si>
+  <si>
     <t>家长姓名</t>
   </si>
   <si>
@@ -72,7 +78,13 @@
     <t>#c.phone</t>
   </si>
   <si>
+    <t>#c.tel</t>
+  </si>
+  <si>
     <t>#c.qq</t>
+  </si>
+  <si>
+    <t>#c.interest</t>
   </si>
   <si>
     <t>#c.parentName</t>
@@ -92,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -146,6 +158,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -153,32 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,9 +197,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,7 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,37 +283,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,32 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +573,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -596,26 +628,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,145 +636,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="3"/>
@@ -1117,15 +1129,15 @@
     <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.375" style="1" customWidth="1"/>
-    <col min="11" max="16383" width="9" style="1"/>
+    <col min="5" max="6" width="16.375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="14.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:10">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,8 +1150,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1154,8 +1168,10 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" customHeight="1" spans="1:10">
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1186,43 +1202,55 @@
       <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
+    <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
